--- a/Data/Questionnaire.xlsx
+++ b/Data/Questionnaire.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weien/Documents/GitHub/ECGsignal_python/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weien/Desktop/ECG穿戴/實驗二_人體壓力/DataSet/問卷&amp;流程資料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A1904E-D0B7-7C4D-BF01-359F4B55A598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3354ACB4-431B-8242-B448-242D785E6386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="920" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{08015CAE-25AD-AA4A-9E4F-5965896AA44A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{08015CAE-25AD-AA4A-9E4F-5965896AA44A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="forAnalyze" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
     <author>葦恩 郭</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{358BEE84-5C90-2042-827C-5D193A0F74CA}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{358BEE84-5C90-2042-827C-5D193A0F74CA}">
       <text>
         <r>
           <rPr>
@@ -290,136 +289,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>葦恩 郭</author>
-  </authors>
-  <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{27E5C748-9E8A-6046-A5C1-80918B1D4EF3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>葦恩</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>郭</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>前一個分數</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> (44.78)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>為受試者當下填寫的壓力分數</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>後一個</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> (65.59)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>為實驗結束後受試者回來修正之壓力分數</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="13">
   <si>
     <t>Baseline_VAS (mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,11 +340,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刪除N=2跟7的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VAS_forAnalyze</t>
+    <t>1-0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE5C4B5-7B48-B146-9236-4D071054620B}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -889,8 +756,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
         <v>5.21</v>
@@ -907,158 +774,155 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>25.97</v>
+        <v>3.31</v>
       </c>
       <c r="C3">
-        <v>35.1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44.78</v>
+        <v>10.86</v>
+      </c>
+      <c r="D3">
+        <v>23.67</v>
       </c>
       <c r="E3">
-        <v>33.479999999999997</v>
+        <v>35.68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>14.25</v>
+        <v>25.97</v>
       </c>
       <c r="C4">
-        <v>56.57</v>
-      </c>
-      <c r="D4">
-        <v>71.25</v>
+        <v>35.1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44.78</v>
       </c>
       <c r="E4">
-        <v>96.22</v>
+        <v>33.479999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>23.32</v>
+        <v>14.25</v>
       </c>
       <c r="C5">
-        <v>81.69</v>
+        <v>56.57</v>
       </c>
       <c r="D5">
-        <v>58.21</v>
+        <v>71.25</v>
       </c>
       <c r="E5">
-        <v>69.81</v>
+        <v>96.22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>37.57</v>
+        <v>23.32</v>
       </c>
       <c r="C6">
-        <v>39.630000000000003</v>
+        <v>81.69</v>
       </c>
       <c r="D6">
-        <v>72.959999999999994</v>
+        <v>58.21</v>
       </c>
       <c r="E6">
-        <v>55.05</v>
+        <v>69.81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>18.12</v>
+        <v>37.57</v>
       </c>
       <c r="C7">
-        <v>31.27</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="D7">
-        <v>54.24</v>
+        <v>72.959999999999994</v>
       </c>
       <c r="E7">
-        <v>99.11</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3.46</v>
+        <v>18.12</v>
       </c>
       <c r="C8">
-        <v>28.19</v>
+        <v>31.27</v>
       </c>
       <c r="D8">
-        <v>29.28</v>
+        <v>54.24</v>
       </c>
       <c r="E8">
-        <v>94.18</v>
+        <v>99.11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>10.94</v>
+        <v>3.46</v>
       </c>
       <c r="C9">
-        <v>22.61</v>
+        <v>28.19</v>
       </c>
       <c r="D9">
-        <v>25.18</v>
+        <v>29.28</v>
       </c>
       <c r="E9">
-        <v>37.94</v>
+        <v>94.18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>11.49</v>
+        <v>10.94</v>
       </c>
       <c r="C10">
-        <v>27.27</v>
+        <v>22.61</v>
       </c>
       <c r="D10">
-        <v>29.58</v>
+        <v>25.18</v>
       </c>
       <c r="E10">
-        <v>30.74</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>15.65</v>
+        <v>11.49</v>
       </c>
       <c r="C11">
-        <v>37.36</v>
+        <v>27.27</v>
       </c>
       <c r="D11">
-        <v>54.75</v>
+        <v>29.58</v>
       </c>
       <c r="E11">
-        <v>55.65</v>
+        <v>30.74</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1066,19 +930,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>23.74</v>
+        <v>15.65</v>
       </c>
       <c r="C12">
-        <v>29.97</v>
+        <v>37.36</v>
       </c>
       <c r="D12">
-        <v>40.31</v>
+        <v>54.75</v>
       </c>
       <c r="E12">
-        <v>63.42</v>
+        <v>55.65</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1086,299 +950,299 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>8.02</v>
+        <v>23.74</v>
       </c>
       <c r="C13">
-        <v>17.28</v>
+        <v>29.97</v>
       </c>
       <c r="D13">
-        <v>28.27</v>
+        <v>40.31</v>
       </c>
       <c r="E13">
-        <v>73.59</v>
+        <v>63.42</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="C14">
-        <v>0.04</v>
+        <v>17.28</v>
       </c>
       <c r="D14">
-        <v>2.2400000000000002</v>
+        <v>28.27</v>
       </c>
       <c r="E14">
-        <v>1.18</v>
+        <v>73.59</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>2.1800000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
-        <v>7.3</v>
+        <v>0.04</v>
       </c>
       <c r="D15">
-        <v>35.32</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E15">
-        <v>78.760000000000005</v>
+        <v>1.18</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>6.35</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="C16">
-        <v>29.33</v>
+        <v>7.3</v>
       </c>
       <c r="D16">
-        <v>27.19</v>
+        <v>35.32</v>
       </c>
       <c r="E16">
-        <v>72.19</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>6.89</v>
+        <v>6.35</v>
       </c>
       <c r="C17">
-        <v>19.940000000000001</v>
+        <v>29.33</v>
       </c>
       <c r="D17">
-        <v>16.079999999999998</v>
+        <v>27.19</v>
       </c>
       <c r="E17">
-        <v>20.54</v>
+        <v>72.19</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>10.75</v>
+        <v>6.89</v>
       </c>
       <c r="C18">
-        <v>31.63</v>
-      </c>
-      <c r="D18" s="1">
-        <v>25.21</v>
+        <v>19.940000000000001</v>
+      </c>
+      <c r="D18">
+        <v>16.079999999999998</v>
       </c>
       <c r="E18">
-        <v>30.18</v>
+        <v>20.54</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>9.69</v>
+        <v>10.75</v>
       </c>
       <c r="C19">
-        <v>51.49</v>
-      </c>
-      <c r="D19">
-        <v>41.65</v>
+        <v>31.63</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25.21</v>
       </c>
       <c r="E19">
-        <v>64.83</v>
+        <v>30.18</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>2.99</v>
+        <v>9.69</v>
       </c>
       <c r="C20">
-        <v>4.22</v>
+        <v>51.49</v>
       </c>
       <c r="D20">
-        <v>35.44</v>
+        <v>41.65</v>
       </c>
       <c r="E20">
-        <v>91.44</v>
+        <v>64.83</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>71.180000000000007</v>
+        <v>2.99</v>
       </c>
       <c r="C21">
-        <v>72.41</v>
+        <v>4.22</v>
       </c>
       <c r="D21">
-        <v>82.02</v>
+        <v>35.44</v>
       </c>
       <c r="E21">
-        <v>88.95</v>
+        <v>91.44</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>73.180000000000007</v>
+        <v>71.180000000000007</v>
       </c>
       <c r="C22">
-        <v>73.849999999999994</v>
+        <v>72.41</v>
       </c>
       <c r="D22">
-        <v>78.58</v>
+        <v>82.02</v>
       </c>
       <c r="E22">
-        <v>82.38</v>
+        <v>88.95</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>28.98</v>
+        <v>73.180000000000007</v>
       </c>
       <c r="C23">
-        <v>41.69</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="D23">
-        <v>73.25</v>
+        <v>78.58</v>
       </c>
       <c r="E23">
-        <v>19.75</v>
+        <v>82.38</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>2.63</v>
+        <v>28.98</v>
       </c>
       <c r="C24">
-        <v>27.55</v>
+        <v>41.69</v>
       </c>
       <c r="D24">
-        <v>49.75</v>
+        <v>73.25</v>
       </c>
       <c r="E24">
-        <v>70.28</v>
+        <v>19.75</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>10.58</v>
+        <v>2.63</v>
       </c>
       <c r="C25">
-        <v>10.220000000000001</v>
+        <v>27.55</v>
       </c>
       <c r="D25">
-        <v>9.1300000000000008</v>
+        <v>49.75</v>
       </c>
       <c r="E25">
-        <v>10.72</v>
+        <v>70.28</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>24.12</v>
+        <v>10.58</v>
       </c>
       <c r="C26">
-        <v>36.35</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="D26">
-        <v>54.79</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="E26">
-        <v>68.760000000000005</v>
+        <v>10.72</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>2.2599999999999998</v>
+        <v>24.12</v>
       </c>
       <c r="C27">
-        <v>1.1299999999999999</v>
+        <v>36.35</v>
       </c>
       <c r="D27">
-        <v>27.22</v>
+        <v>54.79</v>
       </c>
       <c r="E27">
-        <v>76.150000000000006</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1386,79 +1250,79 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>9.67</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C28">
-        <v>25.94</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D28">
-        <v>59.66</v>
+        <v>27.22</v>
       </c>
       <c r="E28">
-        <v>93.02</v>
+        <v>76.150000000000006</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>20.260000000000002</v>
+        <v>9.67</v>
       </c>
       <c r="C29">
-        <v>23.5</v>
+        <v>25.94</v>
       </c>
       <c r="D29">
-        <v>32.82</v>
+        <v>59.66</v>
       </c>
       <c r="E29">
-        <v>34.81</v>
+        <v>93.02</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>15.92</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="C30">
-        <v>8.24</v>
+        <v>23.5</v>
       </c>
       <c r="D30">
-        <v>18.899999999999999</v>
+        <v>32.82</v>
       </c>
       <c r="E30">
-        <v>87.59</v>
+        <v>34.81</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>24.64</v>
+        <v>15.92</v>
       </c>
       <c r="C31">
-        <v>14.49</v>
+        <v>8.24</v>
       </c>
       <c r="D31">
-        <v>61.16</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E31">
-        <v>69.45</v>
+        <v>87.59</v>
       </c>
       <c r="F31">
         <v>14</v>
@@ -1466,41 +1330,281 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>28.62</v>
+        <v>24.64</v>
       </c>
       <c r="C32">
-        <v>55.91</v>
+        <v>14.49</v>
       </c>
       <c r="D32">
-        <v>54.98</v>
+        <v>61.16</v>
       </c>
       <c r="E32">
-        <v>54.98</v>
+        <v>69.45</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>28.62</v>
+      </c>
+      <c r="C33">
+        <v>55.91</v>
+      </c>
+      <c r="D33">
+        <v>54.98</v>
+      </c>
+      <c r="E33">
+        <v>54.98</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>14.29</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>31.08</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>55.14</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>76.17</v>
       </c>
-      <c r="F33">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="C35">
+        <v>11.67</v>
+      </c>
+      <c r="D35">
+        <v>26.45</v>
+      </c>
+      <c r="E35">
+        <v>49.23</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>10.93</v>
+      </c>
+      <c r="C36">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D36">
+        <v>28.21</v>
+      </c>
+      <c r="E36">
+        <v>67.12</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2.69</v>
+      </c>
+      <c r="C37">
+        <v>2.67</v>
+      </c>
+      <c r="D37">
+        <v>22.54</v>
+      </c>
+      <c r="E37">
+        <v>13.49</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>19.34</v>
+      </c>
+      <c r="C38">
+        <v>26.65</v>
+      </c>
+      <c r="D38">
+        <v>46.03</v>
+      </c>
+      <c r="E38">
+        <v>83.04</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>23.61</v>
+      </c>
+      <c r="D39">
+        <v>45.8</v>
+      </c>
+      <c r="E39">
+        <v>79.34</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>14.57</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>43.4</v>
+      </c>
+      <c r="E40">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="C41">
+        <v>25.53</v>
+      </c>
+      <c r="D41">
+        <v>30.77</v>
+      </c>
+      <c r="E41">
+        <v>37.25</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>65.94</v>
+      </c>
+      <c r="C42">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="D42">
+        <v>76.19</v>
+      </c>
+      <c r="E42">
+        <v>55.4</v>
+      </c>
+      <c r="F42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>7.64</v>
+      </c>
+      <c r="C43">
+        <v>26.73</v>
+      </c>
+      <c r="D43">
+        <v>53.69</v>
+      </c>
+      <c r="E43">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>16.75</v>
+      </c>
+      <c r="C44">
+        <v>24.05</v>
+      </c>
+      <c r="D44">
+        <v>29.78</v>
+      </c>
+      <c r="E44">
+        <v>54.73</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>13.92</v>
+      </c>
+      <c r="C45">
+        <v>24.23</v>
+      </c>
+      <c r="D45">
+        <v>52.89</v>
+      </c>
+      <c r="E45">
+        <v>51.05</v>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
     </row>
@@ -1513,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1C86CB-686E-FE4C-8651-547319A783EE}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A143" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1540,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>5.21</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1551,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>80.8</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1562,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>69.41</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1573,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>44.37</v>
+        <v>35.68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1697,7 +1801,7 @@
         <v>58.21</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1707,8 +1811,17 @@
       <c r="C17">
         <v>69.81</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1718,8 +1831,17 @@
       <c r="C18">
         <v>37.57</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1729,8 +1851,17 @@
       <c r="C19">
         <v>39.630000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>29.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1740,8 +1871,17 @@
       <c r="C20">
         <v>72.959999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>94.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1752,7 +1892,7 @@
         <v>55.05</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1763,7 +1903,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1774,7 +1914,7 @@
         <v>31.27</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1785,7 +1925,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1796,1777 +1936,1544 @@
         <v>99.11</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:9">
       <c r="A26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27">
-        <v>28.19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29">
-        <v>94.18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>10.94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31">
-        <v>22.61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32">
-        <v>25.18</v>
+        <v>29.58</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33">
-        <v>37.94</v>
+        <v>30.74</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>11.49</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35">
-        <v>27.27</v>
+        <v>37.36</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36">
-        <v>29.58</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37">
-        <v>30.74</v>
+        <v>55.65</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>15.65</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39">
-        <v>37.36</v>
+        <v>29.97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40">
-        <v>54.75</v>
+        <v>40.31</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41">
-        <v>55.65</v>
+        <v>63.42</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
-        <v>23.74</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43">
-        <v>29.97</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44">
-        <v>40.31</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45">
-        <v>63.42</v>
+        <v>73.59</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47">
-        <v>17.28</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48">
-        <v>28.27</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49">
-        <v>73.59</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50">
-        <v>0.8</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51">
-        <v>0.04</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52">
-        <v>2.2400000000000002</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53">
-        <v>1.18</v>
+        <v>78.760000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54">
-        <v>2.1800000000000002</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55">
-        <v>7.3</v>
+        <v>29.33</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="C56">
-        <v>35.32</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57">
-        <v>78.760000000000005</v>
+        <v>72.19</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58">
-        <v>6.35</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59">
-        <v>29.33</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60">
-        <v>27.19</v>
+        <v>16.079999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61">
-        <v>72.19</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62">
-        <v>6.89</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63">
-        <v>19.940000000000001</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64">
-        <v>16.079999999999998</v>
+      <c r="C64" s="1">
+        <v>25.21</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65">
-        <v>20.54</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>10.75</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67">
-        <v>31.63</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="1">
-        <v>25.21</v>
+      <c r="C68">
+        <v>41.65</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69">
-        <v>30.18</v>
+        <v>64.83</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70">
-        <v>9.69</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71">
-        <v>51.49</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
       <c r="C72">
-        <v>41.65</v>
+        <v>35.44</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="C73">
-        <v>64.83</v>
+        <v>91.44</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74">
-        <v>2.99</v>
+        <v>71.180000000000007</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75">
-        <v>4.22</v>
+        <v>72.41</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76">
-        <v>35.44</v>
+        <v>82.02</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77">
-        <v>91.44</v>
+        <v>88.95</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78">
-        <v>71.180000000000007</v>
+        <v>73.180000000000007</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79">
-        <v>72.41</v>
+        <v>73.849999999999994</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
       </c>
       <c r="C80">
-        <v>82.02</v>
+        <v>78.58</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81">
-        <v>88.95</v>
+        <v>82.38</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82">
-        <v>73.180000000000007</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83">
-        <v>73.849999999999994</v>
+        <v>41.69</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
       </c>
       <c r="C84">
-        <v>78.58</v>
+        <v>73.25</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
       </c>
       <c r="C85">
-        <v>82.38</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86">
-        <v>28.98</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87">
-        <v>41.69</v>
+        <v>27.55</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
         <v>9</v>
       </c>
       <c r="C88">
-        <v>73.25</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89">
-        <v>19.75</v>
+        <v>70.28</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90">
-        <v>2.63</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91">
-        <v>27.55</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
       </c>
       <c r="C92">
-        <v>49.75</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93">
-        <v>70.28</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94">
-        <v>10.58</v>
+        <v>24.12</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95">
-        <v>10.220000000000001</v>
+        <v>36.35</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
       <c r="C96">
-        <v>9.1300000000000008</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97">
-        <v>10.72</v>
+        <v>68.760000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98">
-        <v>24.12</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99">
-        <v>36.35</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
       <c r="C100">
-        <v>54.79</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
       </c>
       <c r="C101">
-        <v>68.760000000000005</v>
+        <v>76.150000000000006</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102">
-        <v>2.2599999999999998</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103">
-        <v>1.1299999999999999</v>
+        <v>25.94</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
       </c>
       <c r="C104">
-        <v>27.22</v>
+        <v>59.66</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
       </c>
       <c r="C105">
-        <v>76.150000000000006</v>
+        <v>93.02</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106">
-        <v>9.67</v>
+        <v>20.260000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107">
-        <v>25.94</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
       <c r="C108">
-        <v>59.66</v>
+        <v>32.82</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
       <c r="C109">
-        <v>93.02</v>
+        <v>34.81</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110">
-        <v>20.260000000000002</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111">
-        <v>23.5</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
       </c>
       <c r="C112">
-        <v>32.82</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
       <c r="C113">
-        <v>34.81</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114">
-        <v>15.92</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115">
-        <v>8.24</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
       <c r="C116">
-        <v>18.899999999999999</v>
+        <v>61.16</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
       <c r="C117">
-        <v>87.59</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118">
-        <v>24.64</v>
+        <v>28.62</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119">
-        <v>14.49</v>
+        <v>55.91</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
       </c>
       <c r="C120">
-        <v>61.16</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="C121">
-        <v>69.45</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122">
-        <v>28.62</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="C123">
-        <v>55.91</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
       </c>
       <c r="C124">
-        <v>54.98</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
       </c>
       <c r="C125">
-        <v>54.98</v>
+        <v>76.17</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126">
-        <v>14.29</v>
+        <v>19.420000000000002</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
       <c r="C127">
-        <v>31.08</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B128" t="s">
         <v>9</v>
       </c>
       <c r="C128">
-        <v>55.14</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
       </c>
       <c r="C129">
-        <v>76.17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC53E7B-62F0-C042-AA96-4448044AC4F6}">
-  <dimension ref="A1:B121"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
+        <v>49.23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>34</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>34</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>34</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>28.21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>34</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>67.12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>35</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>35</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>35</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>35</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>36</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>19.34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>36</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>36</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>36</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>83.04</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>37</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="B2">
-        <v>25.97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="1">
-        <v>44.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7">
-        <v>56.57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8">
-        <v>71.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9">
-        <v>96.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10">
-        <v>23.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11">
-        <v>81.69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12">
-        <v>58.21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13">
-        <v>69.81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14">
-        <v>37.57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15">
-        <v>39.630000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16">
-        <v>72.959999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17">
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18">
-        <v>18.12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19">
-        <v>31.27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20">
-        <v>54.24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21">
-        <v>99.11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22">
-        <v>10.94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23">
-        <v>22.61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24">
-        <v>25.18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25">
-        <v>37.94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26">
-        <v>11.49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27">
-        <v>27.27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28">
-        <v>29.58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29">
-        <v>30.74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30">
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31">
-        <v>37.36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32">
-        <v>54.75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33">
-        <v>55.65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34">
-        <v>23.74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35">
-        <v>29.97</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36">
-        <v>40.31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37">
-        <v>63.42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38">
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39">
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40">
-        <v>28.27</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41">
-        <v>73.59</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48">
-        <v>35.32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49">
-        <v>78.760000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50">
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51">
-        <v>29.33</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52">
-        <v>27.19</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53">
-        <v>72.19</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54">
-        <v>6.89</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55">
-        <v>19.940000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56">
-        <v>16.079999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57">
-        <v>20.54</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59">
-        <v>31.63</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="1">
-        <v>25.21</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61">
-        <v>30.18</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62">
-        <v>9.69</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63">
-        <v>51.49</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64">
-        <v>41.65</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65">
-        <v>64.83</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68">
-        <v>35.44</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69">
-        <v>91.44</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70">
-        <v>71.180000000000007</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71">
-        <v>72.41</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72">
-        <v>82.02</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73">
-        <v>88.95</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74">
-        <v>73.180000000000007</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75">
-        <v>73.849999999999994</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76">
-        <v>78.58</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77">
-        <v>82.38</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78">
-        <v>28.98</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79">
-        <v>41.69</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80">
-        <v>73.25</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81">
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83">
-        <v>27.55</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84">
-        <v>49.75</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85">
-        <v>70.28</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86">
-        <v>10.58</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87">
-        <v>10.220000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88">
-        <v>9.1300000000000008</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91">
-        <v>36.35</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92">
-        <v>54.79</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93">
-        <v>68.760000000000005</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96">
-        <v>27.22</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97">
-        <v>76.150000000000006</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98">
-        <v>9.67</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99">
-        <v>25.94</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100">
-        <v>59.66</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101">
-        <v>93.02</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102">
-        <v>20.260000000000002</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104">
-        <v>32.82</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105">
-        <v>34.81</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106">
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107">
-        <v>8.24</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109">
-        <v>87.59</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110">
-        <v>24.64</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111">
-        <v>14.49</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112">
-        <v>61.16</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113">
-        <v>69.45</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114">
-        <v>28.62</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115">
-        <v>55.91</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116">
-        <v>54.98</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117">
-        <v>54.98</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118">
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120">
-        <v>55.14</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121">
-        <v>76.17</v>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>37</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>23.61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>37</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>37</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>79.34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>38</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>38</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>38</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>38</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>39</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>39</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>25.53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>39</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>40</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>65.94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>40</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155">
+        <v>74.540000000000006</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>40</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156">
+        <v>76.19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>40</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>41</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>41</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>41</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160">
+        <v>53.69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>41</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>40.520000000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>42</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>42</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>42</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>29.78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>42</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>54.73</v>
       </c>
     </row>
   </sheetData>
